--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/backtest_file_comparision.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/backtest_file_comparision.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD01585-634F-4A76-8724-56A6B190C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25D41D-5BD4-47CA-9362-37601603503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EEECA1F3-84CA-492D-8259-60140CF04F99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{EEECA1F3-84CA-492D-8259-60140CF04F99}"/>
   </bookViews>
   <sheets>
-    <sheet name="19-Jan-2023_TU" sheetId="1" r:id="rId1"/>
-    <sheet name="22-Jun-2023_TU" sheetId="2" r:id="rId2"/>
-    <sheet name="20-07-2023_TU" sheetId="3" r:id="rId3"/>
-    <sheet name="15-12-2022_TD" sheetId="5" r:id="rId4"/>
-    <sheet name="05-01-2023_TD" sheetId="6" r:id="rId5"/>
+    <sheet name="19-Jan-2023_TU_S1" sheetId="1" r:id="rId1"/>
+    <sheet name="22-Jun-2023_TU_S1" sheetId="2" r:id="rId2"/>
+    <sheet name="20-07-2023_TU_S1" sheetId="3" r:id="rId3"/>
+    <sheet name="15-12-2022_TD_S1" sheetId="5" r:id="rId4"/>
+    <sheet name="05-01-2023_TD_S1" sheetId="6" r:id="rId5"/>
+    <sheet name="23-02-2023_TD_S1" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="S3" sheetId="8" r:id="rId8"/>
+    <sheet name="S2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -249,6 +253,15 @@
   <si>
     <t>Monday</t>
   </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Both S2 and S3 Check done</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -321,10 +334,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,7 +662,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O98" sqref="O98"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,7 +4655,7 @@
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>42</v>
@@ -4864,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4874,9 +4893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508FE565-C940-4979-9291-96C448F6BFA2}">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T60" sqref="T60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6419,7 +6438,7 @@
     <row r="44" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
     </row>
-    <row r="46" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
@@ -6707,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6719,7 +6738,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8020,7 +8039,7 @@
         <v>7.15</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30:R51" si="13">Q30*2</f>
+        <f t="shared" ref="R30:R50" si="13">Q30*2</f>
         <v>14.3</v>
       </c>
       <c r="S30">
@@ -9657,7 +9676,7 @@
         <v>5.5</v>
       </c>
       <c r="M57">
-        <f t="shared" ref="M57:M68" si="20">J57-K57</f>
+        <f t="shared" ref="M57:M67" si="20">J57-K57</f>
         <v>11.3</v>
       </c>
       <c r="N57" s="2">
@@ -10721,7 +10740,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
@@ -10975,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12173,41 +12192,41 @@
         <v>-254.99999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44904</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18">
         <v>16.25</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18">
         <v>8.25</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="2">
         <v>0.59375</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18">
         <v>15.7</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18">
         <v>8.65</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>17.3</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18">
         <f t="shared" si="3"/>
         <v>7.0499999999999989</v>
       </c>
@@ -13389,7 +13408,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="AF55">
-        <f t="shared" ref="AF55:AF69" si="24">AE55*2</f>
+        <f t="shared" ref="AF55:AF68" si="24">AE55*2</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="AG55">
@@ -14389,7 +14408,7 @@
         <v>887.5</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>42</v>
@@ -14637,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14647,9 +14666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BA3D5A-1895-41E0-A1DE-830078E20B25}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14659,6 +14678,7 @@
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -14891,7 +14911,7 @@
         <v>22.9</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AE3:AF6" si="3">AE3*2</f>
+        <f t="shared" ref="AF3:AF5" si="3">AE3*2</f>
         <v>45.8</v>
       </c>
       <c r="AG3">
@@ -15095,7 +15115,7 @@
         <v>15.15</v>
       </c>
       <c r="AF8">
-        <f t="shared" ref="AF8:AF11" si="5">AE8*2</f>
+        <f t="shared" ref="AF8:AF10" si="5">AE8*2</f>
         <v>30.3</v>
       </c>
       <c r="AG8">
@@ -17148,7 +17168,7 @@
         <v>1.5</v>
       </c>
       <c r="AF68">
-        <f t="shared" ref="AF68:AF79" si="25">AE68*2</f>
+        <f t="shared" ref="AF68:AF78" si="25">AE68*2</f>
         <v>3</v>
       </c>
       <c r="AG68">
@@ -17986,8 +18006,8 @@
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+    <row r="90" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -18276,7 +18296,6804 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A036DD8-EE99-402D-93B2-06B7CB166962}">
+  <dimension ref="A1:AH101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <f>E2*2</f>
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <f>D2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="J2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L2">
+        <f>K2*2</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M2">
+        <f>J2-K2</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AD2">
+        <v>18</v>
+      </c>
+      <c r="AE2">
+        <v>18</v>
+      </c>
+      <c r="AF2">
+        <f>AE2*2</f>
+        <v>36</v>
+      </c>
+      <c r="AG2">
+        <f>AD2-AE2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>14.45</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="0">E3*2</f>
+        <v>28.9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">D3-E3</f>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="J3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K3">
+        <v>18.55</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="2">K3*2</f>
+        <v>37.1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="3">J3-K3</f>
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AD3">
+        <v>18</v>
+      </c>
+      <c r="AE3">
+        <v>15.6</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF8" si="4">AE3*2</f>
+        <v>31.2</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" si="5">AD3-AE3</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="AD4">
+        <v>18</v>
+      </c>
+      <c r="AE4">
+        <v>14.65</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="4"/>
+        <v>29.3</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="5"/>
+        <v>3.3499999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>13.55</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>27.1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.4499999999999993</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="J5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="AD5">
+        <v>18</v>
+      </c>
+      <c r="AE5">
+        <v>13.6</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="4"/>
+        <v>27.2</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>13.25</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="J6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K6">
+        <v>16.95</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>33.9</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>2.1500000000000021</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="AD6">
+        <v>18</v>
+      </c>
+      <c r="AE6">
+        <v>13.45</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="4"/>
+        <v>26.9</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="5"/>
+        <v>4.5500000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>12.8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="J7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="AD7">
+        <v>18</v>
+      </c>
+      <c r="AE7">
+        <v>13.2</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="4"/>
+        <v>26.4</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="5"/>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>12.55</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K8">
+        <v>17.05</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>34.1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>2.0500000000000007</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AD8">
+        <v>18</v>
+      </c>
+      <c r="AE8">
+        <v>13</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AG8">
+        <f>AD8-AE8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>12.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="AG9">
+        <f>AD8-AF8</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>11.45</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>22.9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>13</v>
+      </c>
+      <c r="AF10">
+        <f>AE10*2</f>
+        <v>26</v>
+      </c>
+      <c r="AG10">
+        <f>AD10-AE10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>11.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>22.8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AD11">
+        <v>13</v>
+      </c>
+      <c r="AE11">
+        <v>12.05</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" ref="AF11:AF20" si="6">AE11*2</f>
+        <v>24.1</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" ref="AG11:AG20" si="7">AD11-AE11</f>
+        <v>0.94999999999999929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>11.1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>22.2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="AD12">
+        <v>13</v>
+      </c>
+      <c r="AE12">
+        <v>11.85</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="6"/>
+        <v>23.7</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="7"/>
+        <v>1.1500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44974</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>11.3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="AD13">
+        <v>13</v>
+      </c>
+      <c r="AE13">
+        <v>10.15</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="6"/>
+        <v>20.3</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="7"/>
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="AD14">
+        <v>13</v>
+      </c>
+      <c r="AE14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="6"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="7"/>
+        <v>3.1999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15">
+        <v>9.35</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="6"/>
+        <v>18.7</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="7"/>
+        <v>3.6500000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="AD16">
+        <v>13</v>
+      </c>
+      <c r="AE16">
+        <v>8.4</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="6"/>
+        <v>16.8</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="AD17">
+        <v>13</v>
+      </c>
+      <c r="AE17">
+        <v>7.95</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="6"/>
+        <v>15.9</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="7"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="AD18">
+        <v>13</v>
+      </c>
+      <c r="AE18">
+        <v>7.45</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="6"/>
+        <v>14.9</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="7"/>
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AD19">
+        <v>13</v>
+      </c>
+      <c r="AE19">
+        <v>7.1</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="6"/>
+        <v>14.2</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="7"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AD20">
+        <v>13</v>
+      </c>
+      <c r="AE20">
+        <v>7.3</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="6"/>
+        <v>14.6</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="7"/>
+        <v>5.7</v>
+      </c>
+      <c r="AH20">
+        <v>222.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>10.8</v>
+      </c>
+      <c r="F22">
+        <f>E22*2</f>
+        <v>21.6</v>
+      </c>
+      <c r="G22">
+        <f>D22-E22</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J22">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K22">
+        <v>16.55</v>
+      </c>
+      <c r="L22">
+        <f>K22*2</f>
+        <v>33.1</v>
+      </c>
+      <c r="M22">
+        <f>J22-K22</f>
+        <v>2.5500000000000007</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="P22">
+        <v>15.35</v>
+      </c>
+      <c r="Q22">
+        <v>15.35</v>
+      </c>
+      <c r="R22">
+        <f>Q22*2</f>
+        <v>30.7</v>
+      </c>
+      <c r="S22">
+        <f>P22-Q22</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AD22">
+        <v>13</v>
+      </c>
+      <c r="AE22">
+        <v>6.2</v>
+      </c>
+      <c r="AF22">
+        <f>AE22*2</f>
+        <v>12.4</v>
+      </c>
+      <c r="AG22">
+        <f>AD22-AE22</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F44" si="8">E23*2</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G45" si="9">D23-E23</f>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J23">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K23">
+        <v>14.95</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L43" si="10">K23*2</f>
+        <v>29.9</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M43" si="11">J23-K23</f>
+        <v>4.1500000000000021</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="P23">
+        <v>15.35</v>
+      </c>
+      <c r="Q23">
+        <v>14.65</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R28" si="12">Q23*2</f>
+        <v>29.3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:S29" si="13">P23-Q23</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="AD23">
+        <v>13</v>
+      </c>
+      <c r="AE23">
+        <v>5.65</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" ref="AF23:AF27" si="14">AE23*2</f>
+        <v>11.3</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" ref="AG23:AG27" si="15">AD23-AE23</f>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="J24">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="11"/>
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="P24">
+        <v>15.35</v>
+      </c>
+      <c r="Q24">
+        <v>13.95</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="12"/>
+        <v>27.9</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="13"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="AD24">
+        <v>13</v>
+      </c>
+      <c r="AE24">
+        <v>5.35</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="14"/>
+        <v>10.7</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="15"/>
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>9.15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>18.3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>6.85</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="J25">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K25">
+        <v>13.8</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="10"/>
+        <v>27.6</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="11"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="P25">
+        <v>15.35</v>
+      </c>
+      <c r="Q25">
+        <v>13.6</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="12"/>
+        <v>27.2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="13"/>
+        <v>1.75</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="AD25">
+        <v>13</v>
+      </c>
+      <c r="AE25">
+        <v>5.15</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="14"/>
+        <v>10.3</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="15"/>
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>8.9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>17.8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>7.1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J26">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K26">
+        <v>13.1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>26.2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000018</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="P26">
+        <v>15.35</v>
+      </c>
+      <c r="Q26">
+        <v>13.25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="12"/>
+        <v>26.5</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="13"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="AD26">
+        <v>13</v>
+      </c>
+      <c r="AE26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="14"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="15"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>8.75</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>17.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>7.25</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="J27">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K27">
+        <v>12.95</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>25.9</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="11"/>
+        <v>6.1500000000000021</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P27">
+        <v>15.35</v>
+      </c>
+      <c r="Q27">
+        <v>13.05</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="12"/>
+        <v>26.1</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="13"/>
+        <v>2.2999999999999989</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="AD27">
+        <v>13</v>
+      </c>
+      <c r="AE27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="14"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="15"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>7.4499999999999993</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J28">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K28">
+        <v>12.55</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>25.1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="11"/>
+        <v>6.5500000000000007</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="P28">
+        <v>15.35</v>
+      </c>
+      <c r="Q28">
+        <v>12.6</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="12"/>
+        <v>25.2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="13"/>
+        <v>2.75</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="AG28">
+        <f>AD27-AF27</f>
+        <v>3.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>8.25</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>16.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>7.75</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K29">
+        <v>12.45</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>24.9</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="11"/>
+        <v>6.6500000000000021</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P29">
+        <v>15.35</v>
+      </c>
+      <c r="Q29">
+        <v>13.05</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="13"/>
+        <v>2.2999999999999989</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="AD29">
+        <v>4.8</v>
+      </c>
+      <c r="AE29">
+        <v>4.8</v>
+      </c>
+      <c r="AF29">
+        <f>AE29*2</f>
+        <v>9.6</v>
+      </c>
+      <c r="AG29">
+        <f>AD29-AE29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>8.1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>16.2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>7.9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J30">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K30">
+        <v>12.4</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="10"/>
+        <v>24.8</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="11"/>
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="AD30">
+        <v>4.8</v>
+      </c>
+      <c r="AE30">
+        <v>4.2</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" ref="AF30:AF36" si="16">AE30*2</f>
+        <v>8.4</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" ref="AG30:AG36" si="17">AD30-AE30</f>
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>7.9</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>15.8</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>8.1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="J31">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K31">
+        <v>12.1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>24.2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="11"/>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AD31">
+        <v>4.8</v>
+      </c>
+      <c r="AE31">
+        <v>3.9</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="16"/>
+        <v>7.8</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="17"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>7.85</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>15.7</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>8.15</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="J32">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K32">
+        <v>11.95</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="10"/>
+        <v>23.9</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="11"/>
+        <v>7.1500000000000021</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AD32">
+        <v>4.8</v>
+      </c>
+      <c r="AE32">
+        <v>3.85</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="16"/>
+        <v>7.7</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="17"/>
+        <v>0.94999999999999973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>7.75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>15.5</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>8.25</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J33">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K33">
+        <v>11.85</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="10"/>
+        <v>23.7</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="11"/>
+        <v>7.2500000000000018</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="AD33">
+        <v>4.8</v>
+      </c>
+      <c r="AE33">
+        <v>3.8</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="16"/>
+        <v>7.6</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>7.7</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>15.4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="J34">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K34">
+        <v>11.1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="10"/>
+        <v>22.2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="11"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="AD34">
+        <v>4.8</v>
+      </c>
+      <c r="AE34">
+        <v>3.7</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="16"/>
+        <v>7.4</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="17"/>
+        <v>1.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>7.65</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>15.3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>8.35</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="J35">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K35">
+        <v>10.7</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="10"/>
+        <v>21.4</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="11"/>
+        <v>8.4000000000000021</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="AD35">
+        <v>4.8</v>
+      </c>
+      <c r="AE35">
+        <v>3.5</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="17"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>7.35</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>14.7</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>8.65</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="J36">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K36">
+        <v>10.6</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="10"/>
+        <v>21.2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="11"/>
+        <v>8.5000000000000018</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AD36">
+        <v>4.8</v>
+      </c>
+      <c r="AE36">
+        <v>3.15</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="16"/>
+        <v>6.3</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="17"/>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>7.15</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="8"/>
+        <v>14.3</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>8.85</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="J37">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K37">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="10"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="11"/>
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>6.95</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="8"/>
+        <v>13.9</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="J38">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K38">
+        <v>9.75</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="11"/>
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>6.85</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="8"/>
+        <v>13.7</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>9.15</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J39">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K39">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="11"/>
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>6.8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
+        <v>13.6</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="J40">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K40">
+        <v>9.5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="11"/>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>6.7</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>13.4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="J41">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K41">
+        <v>9.25</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="10"/>
+        <v>18.5</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="11"/>
+        <v>9.8500000000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>6.55</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>13.1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J42">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K42">
+        <v>9.1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="10"/>
+        <v>18.2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="11"/>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>6.45</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>12.9</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="J43">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K43">
+        <v>8.85</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="10"/>
+        <v>17.7</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="11"/>
+        <v>10.250000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.58680555555555503</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>6.4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>12.8</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>9.6</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J44">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K44">
+        <v>9.15</v>
+      </c>
+      <c r="M44">
+        <f>J44-K44</f>
+        <v>9.9500000000000011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>44977</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>6.85</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>9.15</v>
+      </c>
+      <c r="AH45">
+        <v>912.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>5.7</v>
+      </c>
+      <c r="F47">
+        <f>E47*2</f>
+        <v>11.4</v>
+      </c>
+      <c r="G47">
+        <f>D47-E47</f>
+        <v>10.3</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J47">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K47">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L47">
+        <f>K47*2</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M47">
+        <f>J47-K47</f>
+        <v>10.900000000000002</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P47">
+        <v>15.35</v>
+      </c>
+      <c r="Q47">
+        <v>12.05</v>
+      </c>
+      <c r="R47">
+        <f>Q47*2</f>
+        <v>24.1</v>
+      </c>
+      <c r="S47">
+        <f>P47-Q47</f>
+        <v>3.2999999999999989</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="AD47">
+        <v>4.8</v>
+      </c>
+      <c r="AE47">
+        <v>3</v>
+      </c>
+      <c r="AF47">
+        <f>AE47*2</f>
+        <v>6</v>
+      </c>
+      <c r="AG47">
+        <f>AD47-AE47</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>5.65</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F72" si="18">E48*2</f>
+        <v>11.3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G73" si="19">D48-E48</f>
+        <v>10.35</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="J48">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K48">
+        <v>7.35</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48:L63" si="20">K48*2</f>
+        <v>14.7</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M64" si="21">J48-K48</f>
+        <v>11.750000000000002</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="P48">
+        <v>15.35</v>
+      </c>
+      <c r="Q48">
+        <v>12</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ref="R48:R65" si="22">Q48*2</f>
+        <v>24</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ref="S48:S66" si="23">P48-Q48</f>
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="AD48">
+        <v>4.8</v>
+      </c>
+      <c r="AE48">
+        <v>2.85</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" ref="AF48:AF59" si="24">AE48*2</f>
+        <v>5.7</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" ref="AG48:AG59" si="25">AD48-AE48</f>
+        <v>1.9499999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>5.3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="18"/>
+        <v>10.6</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="19"/>
+        <v>10.7</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="J49">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K49">
+        <v>7.25</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="20"/>
+        <v>14.5</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="21"/>
+        <v>11.850000000000001</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="P49">
+        <v>15.35</v>
+      </c>
+      <c r="Q49">
+        <v>10.45</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="22"/>
+        <v>20.9</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="23"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="AD49">
+        <v>4.8</v>
+      </c>
+      <c r="AE49">
+        <v>2.7</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="24"/>
+        <v>5.4</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="25"/>
+        <v>2.0999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>5.2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="18"/>
+        <v>10.4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="19"/>
+        <v>10.8</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J50">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K50">
+        <v>7.05</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="20"/>
+        <v>14.1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="21"/>
+        <v>12.05</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="P50">
+        <v>15.35</v>
+      </c>
+      <c r="Q50">
+        <v>10.25</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="22"/>
+        <v>20.5</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="23"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="AD50">
+        <v>4.8</v>
+      </c>
+      <c r="AE50">
+        <v>2.65</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="24"/>
+        <v>5.3</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="25"/>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>5.15</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="18"/>
+        <v>10.3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="19"/>
+        <v>10.85</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J51">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="21"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="P51">
+        <v>15.35</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="23"/>
+        <v>5.35</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="AD51">
+        <v>4.8</v>
+      </c>
+      <c r="AE51">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="24"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="25"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>5.05</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="18"/>
+        <v>10.1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="19"/>
+        <v>10.95</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="J52">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K52">
+        <v>5.85</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="20"/>
+        <v>11.7</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="21"/>
+        <v>13.250000000000002</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P52">
+        <v>15.35</v>
+      </c>
+      <c r="Q52">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="22"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="23"/>
+        <v>6.65</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="AD52">
+        <v>4.8</v>
+      </c>
+      <c r="AE52">
+        <v>2.5</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="J53">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K53">
+        <v>5.5</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="21"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="P53">
+        <v>15.35</v>
+      </c>
+      <c r="Q53">
+        <v>8.65</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="22"/>
+        <v>17.3</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="23"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="AD53">
+        <v>4.8</v>
+      </c>
+      <c r="AE53">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="24"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="18"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="19"/>
+        <v>11.1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="J54">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K54">
+        <v>5.4</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="20"/>
+        <v>10.8</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="21"/>
+        <v>13.700000000000001</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="P54">
+        <v>15.35</v>
+      </c>
+      <c r="Q54">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="23"/>
+        <v>7.35</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AD54">
+        <v>4.8</v>
+      </c>
+      <c r="AE54">
+        <v>2.4</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="24"/>
+        <v>4.8</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="25"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="18"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="19"/>
+        <v>11.15</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="J55">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K55">
+        <v>5.15</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="20"/>
+        <v>10.3</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="21"/>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="P55">
+        <v>15.35</v>
+      </c>
+      <c r="Q55">
+        <v>7.7</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="22"/>
+        <v>15.4</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="23"/>
+        <v>7.6499999999999995</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="AD55">
+        <v>4.8</v>
+      </c>
+      <c r="AE55">
+        <v>2.35</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="24"/>
+        <v>4.7</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="25"/>
+        <v>2.4499999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>4.75</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="18"/>
+        <v>9.5</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="19"/>
+        <v>11.25</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="J56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K56">
+        <v>4.8</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="20"/>
+        <v>9.6</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="21"/>
+        <v>14.3</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="P56">
+        <v>15.35</v>
+      </c>
+      <c r="Q56">
+        <v>7.35</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="22"/>
+        <v>14.7</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AD56">
+        <v>4.8</v>
+      </c>
+      <c r="AE56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="24"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="18"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="19"/>
+        <v>11.35</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="J57">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K57">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="20"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="21"/>
+        <v>14.750000000000002</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="P57">
+        <v>15.35</v>
+      </c>
+      <c r="Q57">
+        <v>6.55</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="22"/>
+        <v>13.1</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="23"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="AD57">
+        <v>4.8</v>
+      </c>
+      <c r="AE57">
+        <v>2.15</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="24"/>
+        <v>4.3</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="25"/>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>3.95</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="18"/>
+        <v>7.9</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="19"/>
+        <v>12.05</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="J58">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K58">
+        <v>3.9</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="20"/>
+        <v>7.8</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="21"/>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="P58">
+        <v>15.35</v>
+      </c>
+      <c r="Q58">
+        <v>6.15</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="22"/>
+        <v>12.3</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="23"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="AD58">
+        <v>4.8</v>
+      </c>
+      <c r="AE58">
+        <v>1.95</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="24"/>
+        <v>3.9</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="25"/>
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>3.85</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="18"/>
+        <v>7.7</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="19"/>
+        <v>12.15</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="J59">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K59">
+        <v>3.65</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="20"/>
+        <v>7.3</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="21"/>
+        <v>15.450000000000001</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P59">
+        <v>15.35</v>
+      </c>
+      <c r="Q59">
+        <v>6.05</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="22"/>
+        <v>12.1</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="23"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="AD59">
+        <v>4.8</v>
+      </c>
+      <c r="AE59">
+        <v>1.6</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="24"/>
+        <v>3.2</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="25"/>
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>3.8</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="18"/>
+        <v>7.6</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="19"/>
+        <v>12.2</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="J60">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K60">
+        <v>3.3</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="20"/>
+        <v>6.6</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="21"/>
+        <v>15.8</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="P60">
+        <v>15.35</v>
+      </c>
+      <c r="Q60">
+        <v>5.4</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="22"/>
+        <v>10.8</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="23"/>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="AD60">
+        <v>4.8</v>
+      </c>
+      <c r="AE60">
+        <v>2.25</v>
+      </c>
+      <c r="AG60">
+        <f>AD60-AE60</f>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>3.65</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="18"/>
+        <v>7.3</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="19"/>
+        <v>12.35</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="J61">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K61">
+        <v>3.2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="20"/>
+        <v>6.4</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="21"/>
+        <v>15.900000000000002</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="P61">
+        <v>15.35</v>
+      </c>
+      <c r="Q61">
+        <v>5.15</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="22"/>
+        <v>10.3</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="23"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>3.45</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="18"/>
+        <v>6.9</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="19"/>
+        <v>12.55</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="J62">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K62">
+        <v>3.15</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="20"/>
+        <v>6.3</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="21"/>
+        <v>15.950000000000001</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="P62">
+        <v>15.35</v>
+      </c>
+      <c r="Q62">
+        <v>4.7</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="22"/>
+        <v>9.4</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="23"/>
+        <v>10.649999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>3.35</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="18"/>
+        <v>6.7</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="19"/>
+        <v>12.65</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="J63">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="21"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="P63">
+        <v>15.35</v>
+      </c>
+      <c r="Q63">
+        <v>4.55</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="22"/>
+        <v>9.1</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="23"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>3.25</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="18"/>
+        <v>6.5</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="19"/>
+        <v>12.75</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J64">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K64">
+        <v>3.25</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="21"/>
+        <v>15.850000000000001</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="P64">
+        <v>15.35</v>
+      </c>
+      <c r="Q64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="22"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="23"/>
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P65">
+        <v>15.35</v>
+      </c>
+      <c r="Q65">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="22"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>2.8</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="18"/>
+        <v>5.6</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="19"/>
+        <v>13.2</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P66">
+        <v>15.35</v>
+      </c>
+      <c r="Q66">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="23"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>2.75</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="18"/>
+        <v>5.5</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="19"/>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>2.5</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="19"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>2.35</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="18"/>
+        <v>4.7</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="19"/>
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="18"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="19"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>2.1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="18"/>
+        <v>4.2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="19"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>1.95</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="18"/>
+        <v>3.9</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="19"/>
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>44978</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="19"/>
+        <v>13.55</v>
+      </c>
+      <c r="AH73">
+        <v>1882.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>44979</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>2.85</v>
+      </c>
+      <c r="G75">
+        <f>D75-E75</f>
+        <v>13.15</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J75">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K75">
+        <v>2.7</v>
+      </c>
+      <c r="L75">
+        <f>K75*2</f>
+        <v>5.4</v>
+      </c>
+      <c r="M75">
+        <f>J75-K75</f>
+        <v>16.400000000000002</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P75">
+        <v>15.35</v>
+      </c>
+      <c r="Q75">
+        <v>3.15</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ref="R75:R83" si="26">Q75*2</f>
+        <v>6.3</v>
+      </c>
+      <c r="S75">
+        <f>P75-Q75</f>
+        <v>12.2</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="W75">
+        <v>3.75</v>
+      </c>
+      <c r="X75">
+        <v>3.75</v>
+      </c>
+      <c r="Y75">
+        <f>X75*2</f>
+        <v>7.5</v>
+      </c>
+      <c r="Z75">
+        <f>W75-X75</f>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="AD75">
+        <v>4.8</v>
+      </c>
+      <c r="AE75">
+        <v>3.2</v>
+      </c>
+      <c r="AF75">
+        <v>3.2</v>
+      </c>
+      <c r="AG75">
+        <f>AD75-AE75</f>
+        <v>1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>44979</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J76">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K76">
+        <v>2.6</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ref="L76:L80" si="27">K76*2</f>
+        <v>5.2</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ref="M76:M81" si="28">J76-K76</f>
+        <v>16.5</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="P76">
+        <v>15.35</v>
+      </c>
+      <c r="Q76">
+        <v>3.1</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="26"/>
+        <v>6.2</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ref="S76:S84" si="29">P76-Q76</f>
+        <v>12.25</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="W76">
+        <v>3.75</v>
+      </c>
+      <c r="X76">
+        <v>3.7</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" ref="Y76:Y85" si="30">X76*2</f>
+        <v>7.4</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" ref="Z76:Z86" si="31">W76-X76</f>
+        <v>4.9999999999999822E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>44979</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="J77">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K77">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="27"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="28"/>
+        <v>16.650000000000002</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="P77">
+        <v>15.35</v>
+      </c>
+      <c r="Q77">
+        <v>3.05</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="26"/>
+        <v>6.1</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="29"/>
+        <v>12.3</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="W77">
+        <v>3.75</v>
+      </c>
+      <c r="X77">
+        <v>3.65</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="30"/>
+        <v>7.3</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="31"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>44979</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="J78">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K78">
+        <v>2.35</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="27"/>
+        <v>4.7</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="28"/>
+        <v>16.75</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="P78">
+        <v>15.35</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="29"/>
+        <v>12.35</v>
+      </c>
+      <c r="U78" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="W78">
+        <v>3.75</v>
+      </c>
+      <c r="X78">
+        <v>3.55</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="30"/>
+        <v>7.1</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="31"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>44979</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="J79">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K79">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="27"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="28"/>
+        <v>16.8</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="P79">
+        <v>15.35</v>
+      </c>
+      <c r="Q79">
+        <v>2.8</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="26"/>
+        <v>5.6</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="29"/>
+        <v>12.55</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="W79">
+        <v>3.75</v>
+      </c>
+      <c r="X79">
+        <v>3.5</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>44979</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="J80">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K80">
+        <v>2.25</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="27"/>
+        <v>4.5</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="28"/>
+        <v>16.850000000000001</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P80">
+        <v>15.35</v>
+      </c>
+      <c r="Q80">
+        <v>2.7</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="26"/>
+        <v>5.4</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="29"/>
+        <v>12.649999999999999</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="W80">
+        <v>3.75</v>
+      </c>
+      <c r="X80">
+        <v>3.45</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="30"/>
+        <v>6.9</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="31"/>
+        <v>0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>44979</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J81">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K81">
+        <v>2.35</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="28"/>
+        <v>16.75</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="P81">
+        <v>15.35</v>
+      </c>
+      <c r="Q81">
+        <v>2.65</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="26"/>
+        <v>5.3</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="29"/>
+        <v>12.7</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="W81">
+        <v>3.75</v>
+      </c>
+      <c r="X81">
+        <v>3.35</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="30"/>
+        <v>6.7</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="31"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>44979</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="P82">
+        <v>15.35</v>
+      </c>
+      <c r="Q82">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="26"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="29"/>
+        <v>12.8</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="W82">
+        <v>3.75</v>
+      </c>
+      <c r="X82">
+        <v>3.1</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="30"/>
+        <v>6.2</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="31"/>
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>44979</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="P83">
+        <v>15.35</v>
+      </c>
+      <c r="Q83">
+        <v>2.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="29"/>
+        <v>12.85</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="W83">
+        <v>3.75</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="31"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>44979</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P84">
+        <v>15.35</v>
+      </c>
+      <c r="Q84">
+        <v>2.8</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="29"/>
+        <v>12.55</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="W84">
+        <v>3.75</v>
+      </c>
+      <c r="X84">
+        <v>2.85</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="30"/>
+        <v>5.7</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="31"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>44979</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="W85">
+        <v>3.75</v>
+      </c>
+      <c r="X85">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="30"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="31"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>44979</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W86">
+        <v>3.75</v>
+      </c>
+      <c r="X86">
+        <v>3.2</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="31"/>
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="AH86">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="AH88">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92" t="s">
+        <v>52</v>
+      </c>
+      <c r="L92" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" t="s">
+        <v>53</v>
+      </c>
+      <c r="N92" t="s">
+        <v>54</v>
+      </c>
+      <c r="O92" t="s">
+        <v>55</v>
+      </c>
+      <c r="P92" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>57</v>
+      </c>
+      <c r="R92" t="s">
+        <v>58</v>
+      </c>
+      <c r="S92" t="s">
+        <v>59</v>
+      </c>
+      <c r="T92" t="s">
+        <v>60</v>
+      </c>
+      <c r="U92" t="s">
+        <v>61</v>
+      </c>
+      <c r="V92" t="s">
+        <v>62</v>
+      </c>
+      <c r="W92" t="s">
+        <v>63</v>
+      </c>
+      <c r="X92" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44980</v>
+      </c>
+      <c r="D93">
+        <v>18250</v>
+      </c>
+      <c r="H93">
+        <v>17650</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>44974</v>
+      </c>
+      <c r="R93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44980</v>
+      </c>
+      <c r="H94">
+        <v>-17650</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="M94" s="7">
+        <v>44974</v>
+      </c>
+      <c r="N94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44980</v>
+      </c>
+      <c r="E95">
+        <v>18200</v>
+      </c>
+      <c r="I95">
+        <v>17500</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>44974</v>
+      </c>
+      <c r="R95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44980</v>
+      </c>
+      <c r="I96">
+        <v>-17500</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="M96" s="7">
+        <v>44977</v>
+      </c>
+      <c r="N96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44980</v>
+      </c>
+      <c r="F97">
+        <v>18150</v>
+      </c>
+      <c r="J97">
+        <v>17350</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>44977</v>
+      </c>
+      <c r="R97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44980</v>
+      </c>
+      <c r="J98">
+        <v>-17350</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="M98" s="7">
+        <v>44979</v>
+      </c>
+      <c r="N98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44980</v>
+      </c>
+      <c r="G99">
+        <v>18100</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>44979</v>
+      </c>
+      <c r="R99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="S100">
+        <v>2540</v>
+      </c>
+      <c r="T100">
+        <v>92000</v>
+      </c>
+      <c r="U100">
+        <v>2.7608695650000001</v>
+      </c>
+      <c r="V100">
+        <v>4</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100">
+        <v>5</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10389AE1-4373-4496-843F-DEB52030B0ED}">
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>45121</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D2">
+        <v>15.9</v>
+      </c>
+      <c r="E2">
+        <v>15.9</v>
+      </c>
+      <c r="F2">
+        <f>E2*2</f>
+        <v>31.8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I2">
+        <v>14.05</v>
+      </c>
+      <c r="J2">
+        <v>14.05</v>
+      </c>
+      <c r="K2">
+        <f>J2*2</f>
+        <v>28.1</v>
+      </c>
+      <c r="N2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P2">
+        <f>O2*2</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="T2">
+        <v>10.4</v>
+      </c>
+      <c r="U2">
+        <v>10.4</v>
+      </c>
+      <c r="V2">
+        <f>U2*2</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>45124</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="G3">
+        <v>-15.9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="J3">
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="O3">
+        <f>O2/2</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="U3">
+        <f>U2/2</f>
+        <v>5.2</v>
+      </c>
+      <c r="W3">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>45124</v>
+      </c>
+      <c r="D4">
+        <v>7.9</v>
+      </c>
+      <c r="E4">
+        <v>7.9</v>
+      </c>
+      <c r="F4">
+        <f>E4*2</f>
+        <v>15.8</v>
+      </c>
+      <c r="L4">
+        <v>14.05</v>
+      </c>
+      <c r="Q4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>7.9</v>
+      </c>
+      <c r="E5">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>45125</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6">
+        <v>7.9</v>
+      </c>
+      <c r="E6">
+        <v>30.45</v>
+      </c>
+      <c r="G6">
+        <f>D6-E6</f>
+        <v>-22.549999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>45125</v>
+      </c>
+      <c r="D7">
+        <v>6.8</v>
+      </c>
+      <c r="E7">
+        <v>6.8</v>
+      </c>
+      <c r="F7">
+        <f>E7*2</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>45126</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8">
+        <v>6.8</v>
+      </c>
+      <c r="E8">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>6.8</v>
+      </c>
+      <c r="X9">
+        <v>105</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <f>E11*2</f>
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44979</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>13.25</v>
+      </c>
+      <c r="E14">
+        <v>13.25</v>
+      </c>
+      <c r="F14">
+        <f>E14*2</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>44979</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G15">
+        <v>-13.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F16">
+        <f>E16*2</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K17">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D5251B-32DA-4AEC-8CE2-CE29AF7A4317}">
+  <dimension ref="A1:Y36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D2">
+        <v>18200</v>
+      </c>
+      <c r="H2">
+        <v>17450</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>44939</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D3">
+        <v>-18200</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="M3" s="7">
+        <v>44944</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44945</v>
+      </c>
+      <c r="E4">
+        <v>18350</v>
+      </c>
+      <c r="I4">
+        <v>17500</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>44944</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44945</v>
+      </c>
+      <c r="E5">
+        <v>-18350</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="M5" s="7">
+        <v>44944</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44945</v>
+      </c>
+      <c r="F6">
+        <v>18500</v>
+      </c>
+      <c r="J6">
+        <v>17550</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>44944</v>
+      </c>
+      <c r="R6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44945</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7">
+        <v>1525</v>
+      </c>
+      <c r="T7">
+        <v>92000</v>
+      </c>
+      <c r="U7">
+        <v>1.6576086956521701</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45099</v>
+      </c>
+      <c r="D8">
+        <v>19000</v>
+      </c>
+      <c r="H8">
+        <v>18500</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45099</v>
+      </c>
+      <c r="D9">
+        <v>-19000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="M9" s="7">
+        <v>45093</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45099</v>
+      </c>
+      <c r="E10">
+        <v>19150</v>
+      </c>
+      <c r="I10">
+        <v>18550</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45099</v>
+      </c>
+      <c r="E11">
+        <v>-19150</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="M11" s="7">
+        <v>45093</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45099</v>
+      </c>
+      <c r="F12">
+        <v>19300</v>
+      </c>
+      <c r="J12">
+        <v>18600</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45099</v>
+      </c>
+      <c r="J13">
+        <v>-18600</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="M13" s="7">
+        <v>45097</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14">
+        <v>-45</v>
+      </c>
+      <c r="T14">
+        <v>92000</v>
+      </c>
+      <c r="U14">
+        <v>-4.8913043478260802E-2</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45127</v>
+      </c>
+      <c r="D15">
+        <v>19750</v>
+      </c>
+      <c r="H15">
+        <v>19200</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>45121</v>
+      </c>
+      <c r="R15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45127</v>
+      </c>
+      <c r="D16">
+        <v>-19750</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M16" s="7">
+        <v>45124</v>
+      </c>
+      <c r="N16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E17">
+        <v>19900</v>
+      </c>
+      <c r="I17">
+        <v>19250</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>45124</v>
+      </c>
+      <c r="R17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E18">
+        <v>-19900</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="M18" s="7">
+        <v>45125</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45127</v>
+      </c>
+      <c r="F19">
+        <v>20050</v>
+      </c>
+      <c r="J19">
+        <v>19300</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>45125</v>
+      </c>
+      <c r="R19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>45121</v>
+      </c>
+      <c r="B20" s="13">
+        <v>45127</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10">
+        <v>92.500000000000398</v>
+      </c>
+      <c r="T20" s="10">
+        <v>92000</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0.10054347826087</v>
+      </c>
+      <c r="V20" s="10">
+        <v>1</v>
+      </c>
+      <c r="W20" s="10">
+        <v>3</v>
+      </c>
+      <c r="X20" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44910</v>
+      </c>
+      <c r="D21">
+        <v>18950</v>
+      </c>
+      <c r="H21">
+        <v>18400</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44910</v>
+      </c>
+      <c r="H22">
+        <v>-18400</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="M22" s="14">
+        <v>44904</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44910</v>
+      </c>
+      <c r="E23">
+        <v>18900</v>
+      </c>
+      <c r="I23">
+        <v>18250</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44910</v>
+      </c>
+      <c r="I24">
+        <v>-18250</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="M24" s="7">
+        <v>44904</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44910</v>
+      </c>
+      <c r="F25">
+        <v>18850</v>
+      </c>
+      <c r="J25">
+        <v>18100</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26">
+        <v>1464.99999999999</v>
+      </c>
+      <c r="T26">
+        <v>92000</v>
+      </c>
+      <c r="U26">
+        <v>1.5923913043478199</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44931</v>
+      </c>
+      <c r="D27">
+        <v>18550</v>
+      </c>
+      <c r="H27">
+        <v>17900</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>44925</v>
+      </c>
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44931</v>
+      </c>
+      <c r="H28">
+        <v>-17900</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="M28" s="14">
+        <v>44930</v>
+      </c>
+      <c r="N28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44931</v>
+      </c>
+      <c r="E29">
+        <v>18500</v>
+      </c>
+      <c r="I29">
+        <v>17700</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>44930</v>
+      </c>
+      <c r="R29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>44925</v>
+      </c>
+      <c r="B30" s="17">
+        <v>44931</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="18">
+        <v>1402.5</v>
+      </c>
+      <c r="T30" s="18">
+        <v>92000</v>
+      </c>
+      <c r="U30" s="18">
+        <v>1.5244565217391299</v>
+      </c>
+      <c r="V30" s="18">
+        <v>2</v>
+      </c>
+      <c r="W30" s="18">
+        <v>1</v>
+      </c>
+      <c r="X30" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44980</v>
+      </c>
+      <c r="D31">
+        <v>18250</v>
+      </c>
+      <c r="H31">
+        <v>17650</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>44974</v>
+      </c>
+      <c r="R31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44980</v>
+      </c>
+      <c r="H32">
+        <v>-17650</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="M32" s="14">
+        <v>44979</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44980</v>
+      </c>
+      <c r="E33">
+        <v>18200</v>
+      </c>
+      <c r="I33">
+        <v>17500</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>44979</v>
+      </c>
+      <c r="R33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44980</v>
+      </c>
+      <c r="I34">
+        <v>-17500</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="M34" s="7">
+        <v>44979</v>
+      </c>
+      <c r="N34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44980</v>
+      </c>
+      <c r="F35">
+        <v>18150</v>
+      </c>
+      <c r="J35">
+        <v>17350</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>44979</v>
+      </c>
+      <c r="R35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>44974</v>
+      </c>
+      <c r="B36" s="13">
+        <v>44980</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10">
+        <v>-17.5</v>
+      </c>
+      <c r="T36" s="10">
+        <v>92000</v>
+      </c>
+      <c r="U36" s="10">
+        <v>-1.9021739130434801E-2</v>
+      </c>
+      <c r="V36" s="10">
+        <v>3</v>
+      </c>
+      <c r="W36" s="10">
+        <v>1</v>
+      </c>
+      <c r="X36" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEC3A5E-F4BD-4BB2-9F6C-8E520F93F231}">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D2">
+        <v>18200</v>
+      </c>
+      <c r="H2">
+        <v>17450</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>44939</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D3">
+        <v>-18200</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="M3" s="7">
+        <v>44944</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44945</v>
+      </c>
+      <c r="E4">
+        <v>18350</v>
+      </c>
+      <c r="I4">
+        <v>17500</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>44944</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44945</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5">
+        <v>685</v>
+      </c>
+      <c r="T5">
+        <v>92000</v>
+      </c>
+      <c r="U5">
+        <v>0.74456521739130399</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45099</v>
+      </c>
+      <c r="D6">
+        <v>19000</v>
+      </c>
+      <c r="H6">
+        <v>18500</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45099</v>
+      </c>
+      <c r="D7">
+        <v>-19000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="M7" s="7">
+        <v>45093</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45099</v>
+      </c>
+      <c r="E8">
+        <v>19150</v>
+      </c>
+      <c r="I8">
+        <v>18550</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45099</v>
+      </c>
+      <c r="E9">
+        <v>-19150</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="M9" s="7">
+        <v>45093</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45099</v>
+      </c>
+      <c r="F10">
+        <v>19300</v>
+      </c>
+      <c r="J10">
+        <v>18600</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45099</v>
+      </c>
+      <c r="J11">
+        <v>-18600</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="M11" s="7">
+        <v>45097</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12">
+        <v>-45</v>
+      </c>
+      <c r="T12">
+        <v>92000</v>
+      </c>
+      <c r="U12">
+        <v>-4.8913043478260802E-2</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45127</v>
+      </c>
+      <c r="D13">
+        <v>19750</v>
+      </c>
+      <c r="H13">
+        <v>19200</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>45121</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45127</v>
+      </c>
+      <c r="D14">
+        <v>-19750</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M14" s="7">
+        <v>45124</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E15">
+        <v>19900</v>
+      </c>
+      <c r="I15">
+        <v>19250</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>45124</v>
+      </c>
+      <c r="R15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E16">
+        <v>-19900</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="M16" s="7">
+        <v>45125</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45127</v>
+      </c>
+      <c r="F17">
+        <v>20050</v>
+      </c>
+      <c r="J17">
+        <v>19300</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>45125</v>
+      </c>
+      <c r="R17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>45121</v>
+      </c>
+      <c r="B18" s="13">
+        <v>45127</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10">
+        <v>92.500000000000398</v>
+      </c>
+      <c r="T18" s="10">
+        <v>92000</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0.10054347826087</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10">
+        <v>3</v>
+      </c>
+      <c r="X18" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44910</v>
+      </c>
+      <c r="D19">
+        <v>18950</v>
+      </c>
+      <c r="H19">
+        <v>18400</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44910</v>
+      </c>
+      <c r="H20">
+        <v>-18400</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="M20" s="14">
+        <v>44904</v>
+      </c>
+      <c r="N20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44910</v>
+      </c>
+      <c r="E21">
+        <v>18900</v>
+      </c>
+      <c r="I21">
+        <v>18250</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44910</v>
+      </c>
+      <c r="I22">
+        <v>-18250</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="M22" s="7">
+        <v>44904</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44910</v>
+      </c>
+      <c r="F23">
+        <v>18850</v>
+      </c>
+      <c r="J23">
+        <v>18100</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24">
+        <v>1464.99999999999</v>
+      </c>
+      <c r="T24">
+        <v>92000</v>
+      </c>
+      <c r="U24">
+        <v>1.5923913043478199</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44931</v>
+      </c>
+      <c r="D25">
+        <v>18550</v>
+      </c>
+      <c r="H25">
+        <v>17900</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>44925</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44931</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="S26">
+        <v>2262.5</v>
+      </c>
+      <c r="T26">
+        <v>92000</v>
+      </c>
+      <c r="U26">
+        <v>2.45923913043478</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44980</v>
+      </c>
+      <c r="D27">
+        <v>18250</v>
+      </c>
+      <c r="H27">
+        <v>17650</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>44974</v>
+      </c>
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44980</v>
+      </c>
+      <c r="H28">
+        <v>-17650</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="M28" s="14">
+        <v>44979</v>
+      </c>
+      <c r="N28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44980</v>
+      </c>
+      <c r="E29">
+        <v>18200</v>
+      </c>
+      <c r="I29">
+        <v>17500</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>44979</v>
+      </c>
+      <c r="R29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44980</v>
+      </c>
+      <c r="I30">
+        <v>-17500</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="M30" s="7">
+        <v>44979</v>
+      </c>
+      <c r="N30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44980</v>
+      </c>
+      <c r="F31">
+        <v>18150</v>
+      </c>
+      <c r="J31">
+        <v>17350</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>44979</v>
+      </c>
+      <c r="R31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>44974</v>
+      </c>
+      <c r="B32" s="13">
+        <v>44980</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10">
+        <v>-17.5</v>
+      </c>
+      <c r="T32" s="10">
+        <v>92000</v>
+      </c>
+      <c r="U32" s="10">
+        <v>-1.9021739130434801E-2</v>
+      </c>
+      <c r="V32" s="10">
+        <v>3</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="X32" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/backtest_file_comparision.xlsx
+++ b/Zerodha_GUI/Kite_Zerodha-main/Kite_Zerodha-main/backtest_file_comparision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\Zerodha_GUI\Kite_Zerodha-main\Kite_Zerodha-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25D41D-5BD4-47CA-9362-37601603503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215BA6A1-80EB-42F1-8D45-D60A21B342A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{EEECA1F3-84CA-492D-8259-60140CF04F99}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EEECA1F3-84CA-492D-8259-60140CF04F99}"/>
   </bookViews>
   <sheets>
     <sheet name="19-Jan-2023_TU_S1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="20-07-2023_TU_S1" sheetId="3" r:id="rId3"/>
     <sheet name="15-12-2022_TD_S1" sheetId="5" r:id="rId4"/>
     <sheet name="05-01-2023_TD_S1" sheetId="6" r:id="rId5"/>
-    <sheet name="23-02-2023_TD_S1" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
-    <sheet name="S3" sheetId="8" r:id="rId8"/>
-    <sheet name="S2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId6"/>
+    <sheet name="23-02-2023_TD_S1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="S3" sheetId="8" r:id="rId9"/>
+    <sheet name="S2" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -262,6 +263,15 @@
   <si>
     <t>-18</t>
   </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>Call Strike</t>
+  </si>
+  <si>
+    <t>Put Strike</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -342,8 +352,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +669,8 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4889,6 +4897,930 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEC3A5E-F4BD-4BB2-9F6C-8E520F93F231}">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D2">
+        <v>18200</v>
+      </c>
+      <c r="H2">
+        <v>17450</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>44939</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44945</v>
+      </c>
+      <c r="D3">
+        <v>-18200</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="M3" s="7">
+        <v>44944</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44945</v>
+      </c>
+      <c r="E4">
+        <v>18350</v>
+      </c>
+      <c r="I4">
+        <v>17500</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>44944</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44945</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5">
+        <v>685</v>
+      </c>
+      <c r="T5">
+        <v>92000</v>
+      </c>
+      <c r="U5">
+        <v>0.74456521739130399</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45099</v>
+      </c>
+      <c r="D6">
+        <v>19000</v>
+      </c>
+      <c r="H6">
+        <v>18500</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45099</v>
+      </c>
+      <c r="D7">
+        <v>-19000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="M7" s="7">
+        <v>45093</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45099</v>
+      </c>
+      <c r="E8">
+        <v>19150</v>
+      </c>
+      <c r="I8">
+        <v>18550</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45099</v>
+      </c>
+      <c r="E9">
+        <v>-19150</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="M9" s="7">
+        <v>45093</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45099</v>
+      </c>
+      <c r="F10">
+        <v>19300</v>
+      </c>
+      <c r="J10">
+        <v>18600</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>45093</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45099</v>
+      </c>
+      <c r="J11">
+        <v>-18600</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="M11" s="7">
+        <v>45097</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12">
+        <v>-45</v>
+      </c>
+      <c r="T12">
+        <v>92000</v>
+      </c>
+      <c r="U12">
+        <v>-4.8913043478260802E-2</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45127</v>
+      </c>
+      <c r="D13">
+        <v>19750</v>
+      </c>
+      <c r="H13">
+        <v>19200</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>45121</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45127</v>
+      </c>
+      <c r="D14">
+        <v>-19750</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M14" s="7">
+        <v>45124</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E15">
+        <v>19900</v>
+      </c>
+      <c r="I15">
+        <v>19250</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>45124</v>
+      </c>
+      <c r="R15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E16">
+        <v>-19900</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="M16" s="7">
+        <v>45125</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45127</v>
+      </c>
+      <c r="F17">
+        <v>20050</v>
+      </c>
+      <c r="J17">
+        <v>19300</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>45125</v>
+      </c>
+      <c r="R17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>45121</v>
+      </c>
+      <c r="B18" s="13">
+        <v>45127</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10">
+        <v>92.500000000000398</v>
+      </c>
+      <c r="T18" s="10">
+        <v>92000</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0.10054347826087</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10">
+        <v>3</v>
+      </c>
+      <c r="X18" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44910</v>
+      </c>
+      <c r="D19">
+        <v>18950</v>
+      </c>
+      <c r="H19">
+        <v>18400</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44910</v>
+      </c>
+      <c r="H20">
+        <v>-18400</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="M20" s="14">
+        <v>44904</v>
+      </c>
+      <c r="N20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44910</v>
+      </c>
+      <c r="E21">
+        <v>18900</v>
+      </c>
+      <c r="I21">
+        <v>18250</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44910</v>
+      </c>
+      <c r="I22">
+        <v>-18250</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="M22" s="7">
+        <v>44904</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44910</v>
+      </c>
+      <c r="F23">
+        <v>18850</v>
+      </c>
+      <c r="J23">
+        <v>18100</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>44904</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24">
+        <v>1464.99999999999</v>
+      </c>
+      <c r="T24">
+        <v>92000</v>
+      </c>
+      <c r="U24">
+        <v>1.5923913043478199</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44931</v>
+      </c>
+      <c r="D25">
+        <v>18550</v>
+      </c>
+      <c r="H25">
+        <v>17900</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>44925</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44931</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="S26">
+        <v>2262.5</v>
+      </c>
+      <c r="T26">
+        <v>92000</v>
+      </c>
+      <c r="U26">
+        <v>2.45923913043478</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44980</v>
+      </c>
+      <c r="D27">
+        <v>18250</v>
+      </c>
+      <c r="H27">
+        <v>17650</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>44974</v>
+      </c>
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44980</v>
+      </c>
+      <c r="H28">
+        <v>-17650</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="M28" s="14">
+        <v>44979</v>
+      </c>
+      <c r="N28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44980</v>
+      </c>
+      <c r="E29">
+        <v>18200</v>
+      </c>
+      <c r="I29">
+        <v>17500</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>44979</v>
+      </c>
+      <c r="R29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44980</v>
+      </c>
+      <c r="I30">
+        <v>-17500</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="M30" s="7">
+        <v>44979</v>
+      </c>
+      <c r="N30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44980</v>
+      </c>
+      <c r="F31">
+        <v>18150</v>
+      </c>
+      <c r="J31">
+        <v>17350</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>44979</v>
+      </c>
+      <c r="R31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>44974</v>
+      </c>
+      <c r="B32" s="13">
+        <v>44980</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10">
+        <v>-17.5</v>
+      </c>
+      <c r="T32" s="10">
+        <v>92000</v>
+      </c>
+      <c r="U32" s="10">
+        <v>-1.9021739130434801E-2</v>
+      </c>
+      <c r="V32" s="10">
+        <v>3</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="X32" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508FE565-C940-4979-9291-96C448F6BFA2}">
   <dimension ref="A1:Y57"/>
@@ -4904,6 +5836,7 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -11004,7 +11937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3E639-20A7-45CE-96A7-F342A5EE068C}">
   <dimension ref="A1:AH87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
@@ -14666,9 +15599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BA3D5A-1895-41E0-A1DE-830078E20B25}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18303,11 +19236,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0C20AD-39E7-4E60-8236-D7D3068B5979}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44946</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44952</v>
+      </c>
+      <c r="C2">
+        <v>18400</v>
+      </c>
+      <c r="D2">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45002</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45008</v>
+      </c>
+      <c r="C3" s="5">
+        <v>17500</v>
+      </c>
+      <c r="D3" s="5">
+        <v>16700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A036DD8-EE99-402D-93B2-06B7CB166962}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -22793,7 +23787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10389AE1-4373-4496-843F-DEB52030B0ED}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
@@ -23159,7 +24153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D5251B-32DA-4AEC-8CE2-CE29AF7A4317}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
@@ -23973,35 +24967,35 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>44925</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="1">
         <v>44931</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30">
         <v>1402.5</v>
       </c>
-      <c r="T30" s="18">
+      <c r="T30">
         <v>92000</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30">
         <v>1.5244565217391299</v>
       </c>
-      <c r="V30" s="18">
+      <c r="V30">
         <v>2</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W30">
         <v>1</v>
       </c>
-      <c r="X30" s="18">
+      <c r="X30">
         <v>3</v>
       </c>
-      <c r="Y30" s="18">
+      <c r="Y30">
         <v>0</v>
       </c>
     </row>
@@ -24173,928 +25167,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEC3A5E-F4BD-4BB2-9F6C-8E520F93F231}">
-  <dimension ref="A1:Y32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44939</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44945</v>
-      </c>
-      <c r="D2">
-        <v>18200</v>
-      </c>
-      <c r="H2">
-        <v>17450</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>44939</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44939</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44945</v>
-      </c>
-      <c r="D3">
-        <v>-18200</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="M3" s="7">
-        <v>44944</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44939</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44945</v>
-      </c>
-      <c r="E4">
-        <v>18350</v>
-      </c>
-      <c r="I4">
-        <v>17500</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>44944</v>
-      </c>
-      <c r="R4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44939</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44945</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5">
-        <v>685</v>
-      </c>
-      <c r="T5">
-        <v>92000</v>
-      </c>
-      <c r="U5">
-        <v>0.74456521739130399</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45099</v>
-      </c>
-      <c r="D6">
-        <v>19000</v>
-      </c>
-      <c r="H6">
-        <v>18500</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>45093</v>
-      </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45099</v>
-      </c>
-      <c r="D7">
-        <v>-19000</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.59583333333333333</v>
-      </c>
-      <c r="M7" s="7">
-        <v>45093</v>
-      </c>
-      <c r="N7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45099</v>
-      </c>
-      <c r="E8">
-        <v>19150</v>
-      </c>
-      <c r="I8">
-        <v>18550</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>45093</v>
-      </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45099</v>
-      </c>
-      <c r="E9">
-        <v>-19150</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="M9" s="7">
-        <v>45093</v>
-      </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45099</v>
-      </c>
-      <c r="F10">
-        <v>19300</v>
-      </c>
-      <c r="J10">
-        <v>18600</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.62083333333333335</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.62083333333333335</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>45093</v>
-      </c>
-      <c r="R10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45099</v>
-      </c>
-      <c r="J11">
-        <v>-18600</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.43680555555555556</v>
-      </c>
-      <c r="M11" s="7">
-        <v>45097</v>
-      </c>
-      <c r="N11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45099</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12">
-        <v>-45</v>
-      </c>
-      <c r="T12">
-        <v>92000</v>
-      </c>
-      <c r="U12">
-        <v>-4.8913043478260802E-2</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>3</v>
-      </c>
-      <c r="X12">
-        <v>4</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45121</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45127</v>
-      </c>
-      <c r="D13">
-        <v>19750</v>
-      </c>
-      <c r="H13">
-        <v>19200</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>45121</v>
-      </c>
-      <c r="R13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45121</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45127</v>
-      </c>
-      <c r="D14">
-        <v>-19750</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="M14" s="7">
-        <v>45124</v>
-      </c>
-      <c r="N14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45121</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45127</v>
-      </c>
-      <c r="E15">
-        <v>19900</v>
-      </c>
-      <c r="I15">
-        <v>19250</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.42986111111111114</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.42986111111111114</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>45124</v>
-      </c>
-      <c r="R15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45121</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45127</v>
-      </c>
-      <c r="E16">
-        <v>-19900</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.39513888888888887</v>
-      </c>
-      <c r="M16" s="7">
-        <v>45125</v>
-      </c>
-      <c r="N16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45121</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45127</v>
-      </c>
-      <c r="F17">
-        <v>20050</v>
-      </c>
-      <c r="J17">
-        <v>19300</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0.39513888888888887</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.39513888888888887</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>45125</v>
-      </c>
-      <c r="R17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>45121</v>
-      </c>
-      <c r="B18" s="13">
-        <v>45127</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10">
-        <v>92.500000000000398</v>
-      </c>
-      <c r="T18" s="10">
-        <v>92000</v>
-      </c>
-      <c r="U18" s="10">
-        <v>0.10054347826087</v>
-      </c>
-      <c r="V18" s="10">
-        <v>1</v>
-      </c>
-      <c r="W18" s="10">
-        <v>3</v>
-      </c>
-      <c r="X18" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44910</v>
-      </c>
-      <c r="D19">
-        <v>18950</v>
-      </c>
-      <c r="H19">
-        <v>18400</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>44904</v>
-      </c>
-      <c r="R19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44910</v>
-      </c>
-      <c r="H20">
-        <v>-18400</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.44097222222222221</v>
-      </c>
-      <c r="M20" s="14">
-        <v>44904</v>
-      </c>
-      <c r="N20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44910</v>
-      </c>
-      <c r="E21">
-        <v>18900</v>
-      </c>
-      <c r="I21">
-        <v>18250</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.44374999999999998</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.44374999999999998</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>44904</v>
-      </c>
-      <c r="R21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44910</v>
-      </c>
-      <c r="I22">
-        <v>-18250</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="M22" s="7">
-        <v>44904</v>
-      </c>
-      <c r="N22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44910</v>
-      </c>
-      <c r="F23">
-        <v>18850</v>
-      </c>
-      <c r="J23">
-        <v>18100</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.53055555555555556</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.53055555555555556</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>44904</v>
-      </c>
-      <c r="R23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44910</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="S24">
-        <v>1464.99999999999</v>
-      </c>
-      <c r="T24">
-        <v>92000</v>
-      </c>
-      <c r="U24">
-        <v>1.5923913043478199</v>
-      </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>4</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44925</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44931</v>
-      </c>
-      <c r="D25">
-        <v>18550</v>
-      </c>
-      <c r="H25">
-        <v>17900</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>44925</v>
-      </c>
-      <c r="R25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44925</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44931</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="S26">
-        <v>2262.5</v>
-      </c>
-      <c r="T26">
-        <v>92000</v>
-      </c>
-      <c r="U26">
-        <v>2.45923913043478</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>2</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44980</v>
-      </c>
-      <c r="D27">
-        <v>18250</v>
-      </c>
-      <c r="H27">
-        <v>17650</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>44974</v>
-      </c>
-      <c r="R27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B28" s="1">
-        <v>44980</v>
-      </c>
-      <c r="H28">
-        <v>-17650</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.40625</v>
-      </c>
-      <c r="M28" s="14">
-        <v>44979</v>
-      </c>
-      <c r="N28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B29" s="1">
-        <v>44980</v>
-      </c>
-      <c r="E29">
-        <v>18200</v>
-      </c>
-      <c r="I29">
-        <v>17500</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.40902777777777777</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0.40902777777777777</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>44979</v>
-      </c>
-      <c r="R29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44980</v>
-      </c>
-      <c r="I30">
-        <v>-17500</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="M30" s="7">
-        <v>44979</v>
-      </c>
-      <c r="N30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44980</v>
-      </c>
-      <c r="F31">
-        <v>18150</v>
-      </c>
-      <c r="J31">
-        <v>17350</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>44979</v>
-      </c>
-      <c r="R31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>44974</v>
-      </c>
-      <c r="B32" s="13">
-        <v>44980</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10">
-        <v>-17.5</v>
-      </c>
-      <c r="T32" s="10">
-        <v>92000</v>
-      </c>
-      <c r="U32" s="10">
-        <v>-1.9021739130434801E-2</v>
-      </c>
-      <c r="V32" s="10">
-        <v>3</v>
-      </c>
-      <c r="W32" s="10">
-        <v>1</v>
-      </c>
-      <c r="X32" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>